--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>vertex assembly</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>bilinear</t>
-  </si>
-  <si>
-    <t>corrected</t>
   </si>
   <si>
     <t>blinn</t>
@@ -103,6 +100,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE66464"/>
+      <color rgb="FF228E65"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -112,6 +115,1222 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pipeline</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Stages</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vertex assembly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>texture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>blinn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloom</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gaussian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>primitive assembly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>texture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>blinn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloom</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gaussian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rasterize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E66464"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>texture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>blinn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloom</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gaussian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fragment </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="228E65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>texture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>blinn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloom</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gaussian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>post</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>texture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>blinn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bloom</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gaussian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="551979400"/>
+        <c:axId val="551979792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="551979400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551979792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551979792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551979400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +1607,7 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -396,47 +1615,167 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>247</v>
+      </c>
+      <c r="C2">
+        <v>257</v>
+      </c>
+      <c r="D2">
+        <v>248</v>
+      </c>
+      <c r="E2">
+        <v>248</v>
+      </c>
+      <c r="F2">
+        <v>248</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>57</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>6437</v>
+      </c>
+      <c r="C4">
+        <v>7446</v>
+      </c>
+      <c r="D4">
+        <v>6439</v>
+      </c>
+      <c r="E4">
+        <v>6454</v>
+      </c>
+      <c r="F4">
+        <v>6434</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>3864</v>
+      </c>
+      <c r="C5">
+        <v>4416</v>
+      </c>
+      <c r="D5">
+        <v>6518</v>
+      </c>
+      <c r="E5">
+        <v>3976</v>
+      </c>
+      <c r="F5">
+        <v>3978</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>509+406 +843+837</f>
+        <v>2595</v>
+      </c>
+      <c r="F6">
+        <f>6508+6434</f>
+        <v>12942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>257</v>
+      </c>
+      <c r="I9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>7002</v>
+      </c>
+      <c r="I11">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>4198</v>
+      </c>
+      <c r="I12">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>